--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmieshkov/Projects/IdeaProjects/maven-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C2A66-39A4-CE48-85A4-92379F7FDD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031B301-120B-7840-961C-8EEB0BFE2A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="23660" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -666,9 +666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -771,8 +771,8 @@
       <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
+      <c r="G4" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="80" x14ac:dyDescent="0.2">
